--- a/data/lake-superior-apostle-islands/lake-superior-apostle-islands-spawning.xlsx
+++ b/data/lake-superior-apostle-islands/lake-superior-apostle-islands-spawning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-DegreeDay-Modeling/data/lake-superior-apostle-islands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148C6C55-14AB-1847-BB84-ECB981481AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C09CCF9-78B5-7A4D-B1AA-F711BCDA8524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="12520" windowHeight="19200" xr2:uid="{6BC05E8D-020F-47A5-B927-8B963608FB42}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>month</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>spent</t>
+  </si>
+  <si>
+    <t>prop.ripe</t>
   </si>
 </sst>
 </file>
@@ -428,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D229DAE8-BA4F-4710-8890-5ECB8E562013}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -441,7 +444,7 @@
     <col min="4" max="4" width="13.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -463,8 +466,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42340</v>
       </c>
@@ -488,8 +494,12 @@
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <f>F2/SUM(E2:G2)</f>
+        <v>6.1728395061728392E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>42345</v>
       </c>
@@ -513,8 +523,12 @@
       <c r="G3">
         <v>3</v>
       </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H7" si="2">F3/SUM(E3:G3)</f>
+        <v>9.4017094017094016E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>42705</v>
       </c>
@@ -538,8 +552,12 @@
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>2.9850746268656716E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>42706</v>
       </c>
@@ -563,8 +581,12 @@
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>42710</v>
       </c>
@@ -588,8 +610,12 @@
       <c r="G6">
         <v>0</v>
       </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43079</v>
       </c>
@@ -612,6 +638,10 @@
       </c>
       <c r="G7">
         <v>16</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0.11627906976744186</v>
       </c>
     </row>
   </sheetData>

--- a/data/lake-superior-apostle-islands/lake-superior-apostle-islands-spawning.xlsx
+++ b/data/lake-superior-apostle-islands/lake-superior-apostle-islands-spawning.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-DegreeDay-Modeling/data/lake-superior-apostle-islands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C09CCF9-78B5-7A4D-B1AA-F711BCDA8524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373586FE-BEF4-1441-A46A-1494FC2904E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="12520" windowHeight="19200" xr2:uid="{6BC05E8D-020F-47A5-B927-8B963608FB42}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="lake-superior-apostle-spawning" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,16 +63,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -100,23 +92,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,14 +427,14 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="8.83203125" style="5"/>
-    <col min="4" max="4" width="13.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.83203125" style="2"/>
+    <col min="4" max="4" width="13.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -457,189 +450,189 @@
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>42340</v>
       </c>
-      <c r="B2" s="5">
-        <v>2015</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="4">
+        <v>2016</v>
+      </c>
+      <c r="C2" s="4">
         <f>MONTH(A2)</f>
         <v>12</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <f>DAY(A2)</f>
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>160</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="6">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="6">
         <f>F2/SUM(E2:G2)</f>
         <v>6.1728395061728392E-3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>42345</v>
       </c>
-      <c r="B3" s="5">
-        <v>2015</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="4">
+        <v>2016</v>
+      </c>
+      <c r="C3" s="4">
         <f t="shared" ref="C3:C7" si="0">MONTH(A3)</f>
         <v>12</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f t="shared" ref="D3:D7" si="1">DAY(A3)</f>
         <v>7</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>209</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>22</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="6">
         <v>3</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="6">
         <f t="shared" ref="H3:H7" si="2">F3/SUM(E3:G3)</f>
         <v>9.4017094017094016E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>42705</v>
       </c>
-      <c r="B4" s="5">
-        <v>2016</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="4">
+        <v>2017</v>
+      </c>
+      <c r="C4" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>65</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>2</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="6">
         <f t="shared" si="2"/>
         <v>2.9850746268656716E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>42706</v>
       </c>
-      <c r="B5" s="5">
-        <v>2016</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="4">
+        <v>2017</v>
+      </c>
+      <c r="C5" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>17</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>42710</v>
       </c>
-      <c r="B6" s="5">
-        <v>2016</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="4">
+        <v>2017</v>
+      </c>
+      <c r="C6" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>60</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="6">
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="6">
         <f t="shared" si="2"/>
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>43079</v>
       </c>
-      <c r="B7" s="5">
-        <v>2017</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B7" s="4">
+        <v>2018</v>
+      </c>
+      <c r="C7" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>22</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <v>5</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="6">
         <v>16</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="6">
         <f t="shared" si="2"/>
         <v>0.11627906976744186</v>
       </c>

--- a/data/lake-superior-apostle-islands/lake-superior-apostle-islands-spawning.xlsx
+++ b/data/lake-superior-apostle-islands/lake-superior-apostle-islands-spawning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-DegreeDay-Modeling/data/lake-superior-apostle-islands/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Embryo-Modeling/data/lake-superior-apostle-islands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373586FE-BEF4-1441-A46A-1494FC2904E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C6C8B8-2C2C-9040-9137-22A3191F30C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="12520" windowHeight="19200" xr2:uid="{6BC05E8D-020F-47A5-B927-8B963608FB42}"/>
   </bookViews>
@@ -33,21 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
   <si>
     <t>date</t>
   </si>
   <si>
     <t>year</t>
-  </si>
-  <si>
-    <t>mature</t>
   </si>
   <si>
     <t>ripe</t>
@@ -56,15 +47,32 @@
     <t>spent</t>
   </si>
   <si>
-    <t>prop.ripe</t>
+    <t>percent.ripe</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -92,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -100,16 +108,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,217 +440,546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D229DAE8-BA4F-4710-8890-5ECB8E562013}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.83203125" style="2"/>
-    <col min="4" max="4" width="13.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="2"/>
+    <col min="7" max="7" width="10.5" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>42313</v>
+      </c>
+      <c r="D2" s="7">
+        <v>60</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>42317</v>
+      </c>
+      <c r="D3" s="7">
+        <v>217</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42319</v>
+      </c>
+      <c r="D4" s="7">
+        <v>207</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>42326</v>
+      </c>
+      <c r="D5" s="7">
+        <v>106</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42332</v>
+      </c>
+      <c r="D6" s="7">
+        <v>334</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>42333</v>
+      </c>
+      <c r="D7" s="7">
+        <v>189</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>42340</v>
+      </c>
+      <c r="D8" s="7">
+        <v>160</v>
+      </c>
+      <c r="E8" s="7">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.61728395061728392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>42345</v>
+      </c>
+      <c r="D9" s="7">
+        <v>209</v>
+      </c>
+      <c r="E9" s="7">
+        <v>22</v>
+      </c>
+      <c r="F9" s="7">
+        <v>3</v>
+      </c>
+      <c r="G9" s="9">
+        <v>9.4017094017094021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42678</v>
+      </c>
+      <c r="D10" s="7">
+        <v>16</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>42682</v>
+      </c>
+      <c r="D11" s="7">
+        <v>54</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>42687</v>
+      </c>
+      <c r="D12" s="7">
+        <v>65</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>42688</v>
+      </c>
+      <c r="D13" s="7">
+        <v>45</v>
+      </c>
+      <c r="E13" s="7">
+        <v>3</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1">
+        <v>42695</v>
+      </c>
+      <c r="D14" s="7">
+        <v>72</v>
+      </c>
+      <c r="E14" s="7">
+        <v>7</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>8.8607594936708853</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1">
+        <v>42702</v>
+      </c>
+      <c r="D15" s="7">
+        <v>54</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1">
+        <v>42705</v>
+      </c>
+      <c r="D16" s="7">
+        <v>65</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>2.9850746268656714</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>42706</v>
+      </c>
+      <c r="D17" s="7">
+        <v>17</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1">
+        <v>42710</v>
+      </c>
+      <c r="D18" s="7">
+        <v>60</v>
+      </c>
+      <c r="E18" s="7">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>42340</v>
-      </c>
-      <c r="B2" s="4">
-        <v>2016</v>
-      </c>
-      <c r="C2" s="4">
-        <f>MONTH(A2)</f>
-        <v>12</v>
-      </c>
-      <c r="D2" s="4">
-        <f>DAY(A2)</f>
-        <v>2</v>
-      </c>
-      <c r="E2" s="6">
-        <v>160</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>7.6923076923076925</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43052</v>
+      </c>
+      <c r="D19" s="7">
+        <v>35</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43058</v>
+      </c>
+      <c r="D20" s="7">
+        <v>26</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43065</v>
+      </c>
+      <c r="D21" s="7">
+        <v>40</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
         <v>1</v>
       </c>
-      <c r="G2" s="6">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6">
-        <f>F2/SUM(E2:G2)</f>
-        <v>6.1728395061728392E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>42345</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2016</v>
-      </c>
-      <c r="C3" s="4">
-        <f t="shared" ref="C3:C7" si="0">MONTH(A3)</f>
-        <v>12</v>
-      </c>
-      <c r="D3" s="4">
-        <f t="shared" ref="D3:D7" si="1">DAY(A3)</f>
-        <v>7</v>
-      </c>
-      <c r="E3" s="6">
-        <v>209</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43068</v>
+      </c>
+      <c r="D22" s="7">
+        <v>60</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43079</v>
+      </c>
+      <c r="D23" s="7">
         <v>22</v>
       </c>
-      <c r="G3" s="6">
-        <v>3</v>
-      </c>
-      <c r="H3" s="6">
-        <f t="shared" ref="H3:H7" si="2">F3/SUM(E3:G3)</f>
-        <v>9.4017094017094016E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>42705</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2017</v>
-      </c>
-      <c r="C4" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D4" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E4" s="6">
-        <v>65</v>
-      </c>
-      <c r="F4" s="6">
-        <v>2</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <f t="shared" si="2"/>
-        <v>2.9850746268656716E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>42706</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2017</v>
-      </c>
-      <c r="C5" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E5" s="6">
-        <v>17</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>42710</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2017</v>
-      </c>
-      <c r="C6" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E6" s="6">
-        <v>60</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E23" s="7">
         <v>5</v>
       </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <f t="shared" si="2"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>43079</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2018</v>
-      </c>
-      <c r="C7" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="E7" s="6">
-        <v>22</v>
-      </c>
-      <c r="F7" s="6">
-        <v>5</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="F23" s="7">
         <v>16</v>
       </c>
-      <c r="H7" s="6">
-        <f t="shared" si="2"/>
-        <v>0.11627906976744186</v>
+      <c r="G23" s="9">
+        <v>11.627906976744185</v>
       </c>
     </row>
   </sheetData>

--- a/data/lake-superior-apostle-islands/lake-superior-apostle-islands-spawning.xlsx
+++ b/data/lake-superior-apostle-islands/lake-superior-apostle-islands-spawning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Embryo-Modeling/data/lake-superior-apostle-islands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C6C8B8-2C2C-9040-9137-22A3191F30C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B180DAA0-68D1-A446-8161-2D4BE97D5784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="12520" windowHeight="19200" xr2:uid="{6BC05E8D-020F-47A5-B927-8B963608FB42}"/>
+    <workbookView xWindow="5960" yWindow="500" windowWidth="27640" windowHeight="19200" xr2:uid="{6BC05E8D-020F-47A5-B927-8B963608FB42}"/>
   </bookViews>
   <sheets>
     <sheet name="lake-superior-apostle-spawning" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>date</t>
   </si>
@@ -57,22 +57,89 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>#/////////////////////////////////////</t>
+  </si>
+  <si>
+    <t># -----START OF METADATA -----</t>
+  </si>
+  <si>
+    <t># ------------------------------------------------</t>
+  </si>
+  <si>
+    <t># TITLE: Biological parameters for temperature-dependent embryo development model</t>
+  </si>
+  <si>
+    <t># DATE: 1-July-2021</t>
+  </si>
+  <si>
+    <t># AUTHOR: Taylor R. Stewart</t>
+  </si>
+  <si>
+    <t># AUTHOR EMAIL: taylor.stewart@uvm.edu</t>
+  </si>
+  <si>
+    <t># AUTHOR ADDRESS: 3 College St, Burlington VT, 05401 USA</t>
+  </si>
+  <si>
+    <t># AUTHOR WEBSITE: https://taylorstewart.github.io/</t>
+  </si>
+  <si>
+    <t># COLLABORATORS: Matteo Zucchetta; Juha Karjalainen; Chloé Goulon; Orlane Anneville; Mark R. Vinson; Josef Wanzenböck; and Jason D. Stockwell</t>
+  </si>
+  <si>
+    <t># FUNDING SOURCES: USGS #G17AC00042</t>
+  </si>
+  <si>
+    <t># REPOSITORY: https://github.com/taylorstewart/Stewart-et-al-20XX---Coregonine-Embryo-Modeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># CITATIONS: </t>
+  </si>
+  <si>
+    <t># VARIABLE DESCRIPTION:</t>
+  </si>
+  <si>
+    <t># OWNERSHIP: Wisconsin Department of Natural Resources Bayfield Fisheries Unit (Drey Carlson)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # year: year class (plus one year from actual spawning date)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # sex: male/female indicator of spawning adult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # date: date of capture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # green: number of spawning individuals green (not actively spawning)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # ripe: number of spawning individuals ripe (actively spawning)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # spent: number of spawning indivudlas spent (post-spawning)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # percent.ripe: percentage of daily spawning individuals actively spawning</t>
+  </si>
+  <si>
+    <t># ----- END OF METADATA -----</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t># ----- START OF DATA -----</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -100,32 +167,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,545 +484,706 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D229DAE8-BA4F-4710-8890-5ECB8E562013}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="2"/>
-    <col min="7" max="7" width="10.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B32" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E32" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F32" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>2016</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1">
         <v>42313</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D33">
         <v>60</v>
       </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
-      <c r="G2" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>2016</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1">
         <v>42317</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D34">
         <v>217</v>
       </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>2016</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1">
         <v>42319</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D35">
         <v>207</v>
       </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>2016</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1">
         <v>42326</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D36">
         <v>106</v>
       </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>2016</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="1">
         <v>42332</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D37">
         <v>334</v>
       </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>2016</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1">
         <v>42333</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D38">
         <v>189</v>
       </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>2016</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1">
         <v>42340</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D39">
         <v>160</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E39">
         <v>1</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F39">
         <v>1</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G39">
         <v>0.61728395061728392</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>2016</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1">
         <v>42345</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D40">
         <v>209</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E40">
         <v>22</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F40">
         <v>3</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G40">
         <v>9.4017094017094021</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>2017</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1">
         <v>42678</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D41">
         <v>16</v>
       </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>2017</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1">
         <v>42682</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D42">
         <v>54</v>
       </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>2017</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="1">
         <v>42687</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D43">
         <v>65</v>
       </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>2017</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1">
         <v>42688</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D44">
         <v>45</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E44">
         <v>3</v>
       </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
         <v>6.25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>2017</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="1">
         <v>42695</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D45">
         <v>72</v>
       </c>
-      <c r="E14" s="7">
-        <v>7</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="E45">
+        <v>7</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
         <v>8.8607594936708853</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>2017</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="1">
         <v>42702</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D46">
         <v>54</v>
       </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>2017</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="1">
         <v>42705</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D47">
         <v>65</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E47">
         <v>2</v>
       </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
         <v>2.9850746268656714</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>2017</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="1">
         <v>42706</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D48">
         <v>17</v>
       </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>2017</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="1">
         <v>42710</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D49">
         <v>60</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E49">
         <v>5</v>
       </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
         <v>7.6923076923076925</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>2018</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="1">
         <v>43052</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D50">
         <v>35</v>
       </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>2018</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="1">
         <v>43058</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D51">
         <v>26</v>
       </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>2018</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="1">
         <v>43065</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D52">
         <v>40</v>
       </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
         <v>1</v>
       </c>
-      <c r="G21" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>2018</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="1">
         <v>43068</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D53">
         <v>60</v>
       </c>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>2018</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="1">
         <v>43079</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D54">
         <v>22</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E54">
         <v>5</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F54">
         <v>16</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G54">
         <v>11.627906976744185</v>
       </c>
     </row>

--- a/data/lake-superior-apostle-islands/lake-superior-apostle-islands-spawning.xlsx
+++ b/data/lake-superior-apostle-islands/lake-superior-apostle-islands-spawning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Embryo-Modeling/data/lake-superior-apostle-islands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B180DAA0-68D1-A446-8161-2D4BE97D5784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30B02B3-FB74-6848-98BD-6F36500717AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5960" yWindow="500" windowWidth="27640" windowHeight="19200" xr2:uid="{6BC05E8D-020F-47A5-B927-8B963608FB42}"/>
   </bookViews>
@@ -487,7 +487,7 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -497,97 +497,97 @@
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
